--- a/data/output/FV2504_FV2410/UTILMD/55066.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55066.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4790" uniqueCount="397">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="397">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1319,6 +1319,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U211" totalsRowShown="0">
+  <autoFilter ref="A1:U211"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1608,7 +1638,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11876,5 +11909,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55066.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55066.xlsx
@@ -2388,7 +2388,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4886,26 +4886,26 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>309</v>
       </c>
       <c r="K51" s="6" t="s">
@@ -4914,23 +4914,23 @@
       <c r="L51" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5" t="s">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>309</v>
       </c>
       <c r="V51" s="6" t="s">
@@ -5296,7 +5296,7 @@
         <v>340</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6196,7 +6196,7 @@
         <v>343</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6374,54 +6374,54 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K80" s="2" t="s">
         <v>344</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="V80" s="5" t="s">
+      <c r="V80" s="2" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6602,54 +6602,54 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="2" t="s">
         <v>345</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O84" s="5" t="s">
+      <c r="O84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P84" s="5"/>
+      <c r="P84" s="2"/>
       <c r="Q84" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5" t="s">
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="V84" s="5" t="s">
+      <c r="V84" s="2" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6830,26 +6830,26 @@
       <c r="V87" s="5"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>320</v>
       </c>
       <c r="K88" s="6" t="s">
@@ -6858,23 +6858,23 @@
       <c r="L88" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M88" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O88" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P88" s="5"/>
+      <c r="P88" s="2"/>
       <c r="Q88" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>320</v>
       </c>
       <c r="V88" s="6" t="s">
@@ -7246,7 +7246,7 @@
         <v>347</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7456,7 +7456,7 @@
         <v>349</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7644,22 +7644,22 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>324</v>
       </c>
       <c r="K103" s="6" t="s">
@@ -7668,19 +7668,19 @@
       <c r="L103" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>324</v>
       </c>
       <c r="V103" s="6" t="s">
@@ -7874,7 +7874,7 @@
         <v>351</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -8002,52 +8002,52 @@
       <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="2"/>
       <c r="L110" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O110" s="5" t="s">
+      <c r="O110" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P110" s="5"/>
+      <c r="P110" s="2"/>
       <c r="Q110" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V110" s="5"/>
+      <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -8192,7 +8192,7 @@
         <v>352</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8682,7 +8682,7 @@
         <v>355</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8952,7 +8952,7 @@
         <v>357</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9222,7 +9222,7 @@
         <v>344</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9428,7 +9428,7 @@
         <v>344</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9634,7 +9634,7 @@
         <v>344</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9840,7 +9840,7 @@
         <v>344</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10154,7 +10154,7 @@
         <v>358</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10282,52 +10282,52 @@
       <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K153" s="5"/>
+      <c r="K153" s="2"/>
       <c r="L153" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O153" s="5" t="s">
+      <c r="O153" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P153" s="5"/>
+      <c r="P153" s="2"/>
       <c r="Q153" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V153" s="5"/>
+      <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -10472,7 +10472,7 @@
         <v>359</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10742,7 +10742,7 @@
         <v>360</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10870,52 +10870,52 @@
       <c r="V163" s="5"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="2"/>
       <c r="F164" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5" t="s">
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K164" s="5"/>
+      <c r="K164" s="2"/>
       <c r="L164" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M164" s="5" t="s">
+      <c r="M164" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N164" s="5" t="s">
+      <c r="N164" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O164" s="5" t="s">
+      <c r="O164" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P164" s="5"/>
+      <c r="P164" s="2"/>
       <c r="Q164" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5" t="s">
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V164" s="5"/>
+      <c r="V164" s="2"/>
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="5" t="s">
@@ -11034,52 +11034,52 @@
       <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5" t="s">
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K167" s="5"/>
+      <c r="K167" s="2"/>
       <c r="L167" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M167" s="5" t="s">
+      <c r="M167" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O167" s="5" t="s">
+      <c r="O167" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P167" s="5"/>
+      <c r="P167" s="2"/>
       <c r="Q167" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5" t="s">
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V167" s="5"/>
+      <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="5" t="s">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11642,7 +11642,7 @@
         <v>361</v>
       </c>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11770,52 +11770,52 @@
       <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K181" s="5"/>
+      <c r="K181" s="2"/>
       <c r="L181" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M181" s="5" t="s">
+      <c r="M181" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O181" s="5" t="s">
+      <c r="O181" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P181" s="5"/>
+      <c r="P181" s="2"/>
       <c r="Q181" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V181" s="5"/>
+      <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="5" t="s">
@@ -11934,52 +11934,52 @@
       <c r="V183" s="5"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5" t="s">
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K184" s="5"/>
+      <c r="K184" s="2"/>
       <c r="L184" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M184" s="5" t="s">
+      <c r="M184" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O184" s="5" t="s">
+      <c r="O184" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P184" s="5"/>
+      <c r="P184" s="2"/>
       <c r="Q184" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5" t="s">
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V184" s="5"/>
+      <c r="V184" s="2"/>
     </row>
     <row r="185" spans="1:22">
       <c r="A185" s="5" t="s">
@@ -12122,7 +12122,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12542,7 +12542,7 @@
         <v>362</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12670,52 +12670,52 @@
       <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5" t="s">
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K198" s="5"/>
+      <c r="K198" s="2"/>
       <c r="L198" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N198" s="5" t="s">
+      <c r="N198" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O198" s="5" t="s">
+      <c r="O198" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P198" s="5"/>
+      <c r="P198" s="2"/>
       <c r="Q198" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5" t="s">
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V198" s="5"/>
+      <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
       <c r="A199" s="5" t="s">
@@ -12834,52 +12834,52 @@
       <c r="V200" s="5"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5" t="s">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K201" s="5"/>
+      <c r="K201" s="2"/>
       <c r="L201" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N201" s="5" t="s">
+      <c r="N201" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O201" s="5" t="s">
+      <c r="O201" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P201" s="5"/>
+      <c r="P201" s="2"/>
       <c r="Q201" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
-      <c r="U201" s="5" t="s">
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V201" s="5"/>
+      <c r="V201" s="2"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="5" t="s">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13252,48 +13252,48 @@
       <c r="V208" s="5"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5" t="s">
+      <c r="C209" s="2"/>
+      <c r="D209" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E209" s="5"/>
+      <c r="E209" s="2"/>
       <c r="F209" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5" t="s">
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K209" s="5"/>
+      <c r="K209" s="2"/>
       <c r="L209" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N209" s="5"/>
-      <c r="O209" s="5" t="s">
+      <c r="N209" s="2"/>
+      <c r="O209" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P209" s="5"/>
+      <c r="P209" s="2"/>
       <c r="Q209" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
-      <c r="U209" s="5" t="s">
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="V209" s="5"/>
+      <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
       <c r="A210" s="5" t="s">
